--- a/nguyenquan9699/evidence.xlsx
+++ b/nguyenquan9699/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">w3b00#5102</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/w3bQQ</t>
+    <t xml:space="preserve">none</t>
   </si>
   <si>
     <t xml:space="preserve">TxHash</t>
@@ -356,8 +356,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1311,7 +1311,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
